--- a/Jogos_do_Dia/2023-06-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1086,52 +1086,52 @@
         <v>49</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W6">
         <v>1.67</v>

--- a/Jogos_do_Dia/2023-06-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -136,31 +136,31 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>Colón</t>
+  </si>
+  <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>Colón</t>
+    <t>Gimnasia La Plata</t>
   </si>
   <si>
     <t>Atlético Tucumán</t>
   </si>
   <si>
-    <t>Gimnasia La Plata</t>
-  </si>
-  <si>
     <t>Fernández Vial</t>
   </si>
   <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Estudiantes</t>
+    <t>Huracán</t>
   </si>
   <si>
     <t>Godoy Cruz</t>
-  </si>
-  <si>
-    <t>Huracán</t>
   </si>
   <si>
     <t>Iberia</t>
@@ -658,91 +658,91 @@
         <v>45</v>
       </c>
       <c r="G2">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="J2">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K2">
-        <v>7.25</v>
+        <v>6.25</v>
       </c>
       <c r="L2">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O2">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="P2">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="Q2">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S2">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="T2">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="U2">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="V2">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="W2">
+        <v>1.2</v>
+      </c>
+      <c r="X2">
+        <v>1.67</v>
+      </c>
+      <c r="Y2">
         <v>1.6</v>
       </c>
-      <c r="X2">
-        <v>1.3</v>
-      </c>
-      <c r="Y2">
-        <v>1.41</v>
-      </c>
       <c r="Z2">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="AA2">
-        <v>2.63</v>
+        <v>3.11</v>
       </c>
       <c r="AB2">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AD2">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AE2">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AF2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AG2">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AH2">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AI2">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -765,91 +765,91 @@
         <v>46</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K3">
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="L3">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
+        <v>2.2</v>
+      </c>
+      <c r="O3">
+        <v>1.58</v>
+      </c>
+      <c r="P3">
+        <v>1.46</v>
+      </c>
+      <c r="Q3">
+        <v>2.5</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>1.68</v>
+      </c>
+      <c r="T3">
+        <v>1.22</v>
+      </c>
+      <c r="U3">
+        <v>1.3</v>
+      </c>
+      <c r="V3">
+        <v>1.87</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>1.3</v>
+      </c>
+      <c r="Y3">
+        <v>1.41</v>
+      </c>
+      <c r="Z3">
+        <v>1.22</v>
+      </c>
+      <c r="AA3">
+        <v>2.63</v>
+      </c>
+      <c r="AB3">
+        <v>1.69</v>
+      </c>
+      <c r="AC3">
+        <v>8</v>
+      </c>
+      <c r="AD3">
+        <v>2.63</v>
+      </c>
+      <c r="AE3">
+        <v>1.27</v>
+      </c>
+      <c r="AF3">
+        <v>1.5</v>
+      </c>
+      <c r="AG3">
+        <v>1.85</v>
+      </c>
+      <c r="AH3">
         <v>2.45</v>
       </c>
-      <c r="O3">
-        <v>1.47</v>
-      </c>
-      <c r="P3">
-        <v>1.53</v>
-      </c>
-      <c r="Q3">
-        <v>2.3</v>
-      </c>
-      <c r="R3">
-        <v>2.1</v>
-      </c>
-      <c r="S3">
-        <v>1.63</v>
-      </c>
-      <c r="T3">
-        <v>1.62</v>
-      </c>
-      <c r="U3">
-        <v>1.38</v>
-      </c>
-      <c r="V3">
-        <v>1.33</v>
-      </c>
-      <c r="W3">
-        <v>1.2</v>
-      </c>
-      <c r="X3">
-        <v>1.67</v>
-      </c>
-      <c r="Y3">
-        <v>1.6</v>
-      </c>
-      <c r="Z3">
-        <v>1.51</v>
-      </c>
-      <c r="AA3">
-        <v>3.11</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <v>5.5</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>1.28</v>
-      </c>
-      <c r="AF3">
-        <v>1.6</v>
-      </c>
-      <c r="AG3">
-        <v>1.97</v>
-      </c>
-      <c r="AH3">
-        <v>2.44</v>
-      </c>
       <c r="AI3">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -872,25 +872,25 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>2.41</v>
+        <v>2.75</v>
       </c>
       <c r="H4">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
-        <v>3.18</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K4">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M4">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
         <v>2.4</v>
@@ -902,61 +902,61 @@
         <v>1.52</v>
       </c>
       <c r="Q4">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R4">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="T4">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="U4">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V4">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="W4">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="X4">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y4">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="Z4">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AA4">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AB4">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="AC4">
         <v>7</v>
       </c>
       <c r="AD4">
-        <v>2.43</v>
+        <v>1.89</v>
       </c>
       <c r="AE4">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AF4">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AH4">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AI4">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -979,25 +979,25 @@
         <v>48</v>
       </c>
       <c r="G5">
-        <v>2.75</v>
+        <v>2.41</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="I5">
-        <v>2.6</v>
+        <v>3.18</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K5">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L5">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="N5">
         <v>2.4</v>
@@ -1009,61 +1009,61 @@
         <v>1.52</v>
       </c>
       <c r="Q5">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S5">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="T5">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="U5">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="V5">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="W5">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="X5">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="Y5">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="Z5">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AA5">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AB5">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="AC5">
         <v>7</v>
       </c>
       <c r="AD5">
-        <v>1.89</v>
+        <v>2.43</v>
       </c>
       <c r="AE5">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AF5">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AG5">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AI5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1086,13 +1086,13 @@
         <v>49</v>
       </c>
       <c r="G6">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J6">
         <v>1.06</v>
@@ -1107,10 +1107,10 @@
         <v>2.7</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O6">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P6">
         <v>1.46</v>
@@ -1119,10 +1119,10 @@
         <v>2.5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S6">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T6">
         <v>1.25</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
